--- a/TiO2/Validation/Data/Fabian_data.xlsx
+++ b/TiO2/Validation/Data/Fabian_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vassilis/Documents/GitHub/PBK_Grouping/Validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vassilis/Documents/GitHub/PBK_Grouping/TiO2/Validation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11240B2E-9EAA-E740-ADDB-33E82F3C1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF06E39-166F-C042-AB7C-E3E53595A55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="23560" windowWidth="28040" windowHeight="17440" xr2:uid="{0A42A139-7086-314E-8B73-38DA6C561D2F}"/>
+    <workbookView xWindow="1120" yWindow="2320" windowWidth="12740" windowHeight="15560" activeTab="1" xr2:uid="{0A42A139-7086-314E-8B73-38DA6C561D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="control" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Time</t>
   </si>
@@ -76,19 +77,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,9 +132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +172,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -283,7 +278,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,7 +420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A034D23D-61EF-EE4D-8332-33DAF4FDFA3C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,4 +517,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49441E25-62F6-0342-A6FD-16D262C59C03}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>1.5</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>1.7</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.7</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>